--- a/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
+++ b/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
@@ -408,16 +408,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C2" t="str">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,16 +428,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D3" t="str">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C4" t="str">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" t="str">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -468,16 +468,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C5" t="str">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -488,16 +488,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C6" t="str">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C7" t="str">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>

--- a/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
+++ b/IPL/Chennai Super Kings/Ruturaj Gaikwad .xlsx
@@ -428,16 +428,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C3" t="str">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" t="str">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -468,16 +468,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C5" t="str">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D5" t="str">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -488,16 +488,16 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E6" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +508,10 @@
         <v>Chennai Super Kings</v>
       </c>
       <c r="C7" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
         <v>0</v>
